--- a/GLRA002_params.xlsx
+++ b/GLRA002_params.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpanagi\Documents\GitHub\Marios-temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\Marios-temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD99003-6F0D-4F1C-BB18-B084FDA90B84}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E3D616-3A86-4671-8ABF-0539A674D1BE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
   <si>
     <t>Genotype</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>'GLRA65.2a'</t>
+  </si>
+  <si>
+    <t>TargetPos</t>
   </si>
 </sst>
 </file>
@@ -483,9 +486,9 @@
       <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -511,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -537,7 +540,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -563,7 +566,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -589,7 +592,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -615,7 +618,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -641,7 +644,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -667,7 +670,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -693,7 +696,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -719,7 +722,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -745,7 +748,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -771,7 +774,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -797,7 +800,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -823,7 +826,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -849,7 +852,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -882,15 +885,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -915,8 +918,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -939,10 +945,13 @@
         <v>3</v>
       </c>
       <c r="H2" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -965,10 +974,13 @@
         <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -991,10 +1003,13 @@
         <v>3</v>
       </c>
       <c r="H4" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1017,10 +1032,13 @@
         <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1043,10 +1061,13 @@
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1069,10 +1090,13 @@
         <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1095,10 +1119,13 @@
         <v>3</v>
       </c>
       <c r="H8" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1121,10 +1148,13 @@
         <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1147,10 +1177,13 @@
         <v>3</v>
       </c>
       <c r="H10" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -1173,10 +1206,13 @@
         <v>3</v>
       </c>
       <c r="H11" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1199,10 +1235,13 @@
         <v>3</v>
       </c>
       <c r="H12" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1225,10 +1264,13 @@
         <v>6</v>
       </c>
       <c r="H13" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1251,10 +1293,13 @@
         <v>3</v>
       </c>
       <c r="H14" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1277,7 +1322,10 @@
         <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>4.5</v>
+        <v>-0.5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/GLRA002_params.xlsx
+++ b/GLRA002_params.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\Marios-temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E3D616-3A86-4671-8ABF-0539A674D1BE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC893542-976B-49A3-BF9F-28639829383A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Genotype</t>
   </si>
@@ -104,60 +103,6 @@
   </si>
   <si>
     <t>GLRA65.2a</t>
-  </si>
-  <si>
-    <t>'GLRA50.6d'</t>
-  </si>
-  <si>
-    <t>'WT'</t>
-  </si>
-  <si>
-    <t>'Female'</t>
-  </si>
-  <si>
-    <t>'GLRA51.6c'</t>
-  </si>
-  <si>
-    <t>'GLRA52.4d'</t>
-  </si>
-  <si>
-    <t>'KO'</t>
-  </si>
-  <si>
-    <t>'GLRA53.5f'</t>
-  </si>
-  <si>
-    <t>'GLRA54.3d'</t>
-  </si>
-  <si>
-    <t>'GLRA56.2a'</t>
-  </si>
-  <si>
-    <t>'Male'</t>
-  </si>
-  <si>
-    <t>'GLRA58.3b'</t>
-  </si>
-  <si>
-    <t>'GLRA58.3c'</t>
-  </si>
-  <si>
-    <t>'GLRA58.3d'</t>
-  </si>
-  <si>
-    <t>'GLRA62.4b'</t>
-  </si>
-  <si>
-    <t>'GLRA64.1c'</t>
-  </si>
-  <si>
-    <t>'GLRA64.1e'</t>
-  </si>
-  <si>
-    <t>'GLRA65.1a'</t>
-  </si>
-  <si>
-    <t>'GLRA65.2a'</t>
   </si>
   <si>
     <t>TargetPos</t>
@@ -480,415 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4.0724450000000002E-2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2.0083500000000001E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8.6679000000000006E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8.1669350000000002E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.1057612</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.67E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.435E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2.4649999999999998E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2.5954000000000001E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.97486E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2">
-        <v>6</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2">
-        <v>25</v>
-      </c>
-      <c r="G14" s="2">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,18 +459,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>4.0724450000000002E-2</v>
@@ -953,13 +493,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>2.0083500000000001E-2</v>
@@ -982,13 +522,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>8.6679000000000006E-2</v>
@@ -1011,13 +551,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>8.1669350000000002E-2</v>
@@ -1040,13 +580,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>0.1057612</v>
@@ -1069,13 +609,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
         <v>1.67E-2</v>
@@ -1098,13 +638,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>1.9400000000000001E-2</v>
@@ -1127,13 +667,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>1.435E-2</v>
@@ -1156,13 +696,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <v>8.8999999999999999E-3</v>
@@ -1185,13 +725,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
         <v>2.4649999999999998E-2</v>
@@ -1214,13 +754,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
         <v>2.5954000000000001E-2</v>
@@ -1243,13 +783,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>2.97486E-2</v>
@@ -1272,13 +812,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
         <v>1.0500000000000001E-2</v>
@@ -1301,13 +841,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2">
         <v>1.6E-2</v>
